--- a/Java_Thread.xlsx
+++ b/Java_Thread.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="971" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="971" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Thread-Terms" sheetId="9" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="282">
   <si>
     <t>Thread</t>
   </si>
@@ -3563,11 +3563,6 @@
 </t>
   </si>
   <si>
-    <t>newFixedThreadPool - 
-newSingleThreadExecutor - all task executed sequentially
-newSingleThreadScheduledExecutor - all task executed scheduled delay</t>
-  </si>
-  <si>
     <t>JVM : has lot of logic to improvise performance.
 Volatile/synchrnoized key word skips lot of JVM's hand dealing with memory; improper use of those keys, drastically disturb performance.</t>
   </si>
@@ -4414,12 +4409,39 @@
   <si>
     <t xml:space="preserve">Multi Thread env, thread aquire a LOCK of a shared data </t>
   </si>
+  <si>
+    <t>-- Apply Separate area of concern 
+       - Read, Write , Read and Write
+-- Read and Write operation like Increment Pass the function to a wrapper function let handle it low level.
+--- Ex: java.util.concurrent.atomic.AtomicLong offers get, set, getAndSet, compareAndSet</t>
+  </si>
+  <si>
+    <t>Executor Benefits</t>
+  </si>
+  <si>
+    <t>Executor framework, allows asynchronously execute tasks: 
+-- database query
+-- complex calculation
+-- image rendering.</t>
+  </si>
+  <si>
+    <t>newFixedThreadPool - Fixed number of threads; Can not grow after its initialized; 
+newCachedThreadPool - default NOT limit num of threads; Explicitly handle to limit
+newSingleThreadExecutor - all task executed sequentially
+newSingleThreadScheduledExecutor - all task executed scheduled delay</t>
+  </si>
+  <si>
+    <t>ScheduledExecutorService</t>
+  </si>
+  <si>
+    <t>java.util.concurrent.ScheduledExecutorService</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="31">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4619,6 +4641,19 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -4634,7 +4669,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="70">
+  <borders count="73">
     <border>
       <left/>
       <right/>
@@ -5555,11 +5590,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color theme="0"/>
+      </right>
+      <top style="hair">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="0"/>
+      </left>
+      <right style="hair">
+        <color theme="0"/>
+      </right>
+      <top style="hair">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -6020,6 +6094,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6032,8 +6109,32 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10228,27 +10329,27 @@
     </row>
     <row r="4" spans="2:4">
       <c r="B4" s="151" t="s">
+        <v>262</v>
+      </c>
+      <c r="C4" s="151" t="s">
         <v>263</v>
-      </c>
-      <c r="C4" s="151" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="78.75">
       <c r="B5" s="151" t="s">
+        <v>266</v>
+      </c>
+      <c r="C5" s="153" t="s">
         <v>267</v>
-      </c>
-      <c r="C5" s="153" t="s">
-        <v>268</v>
       </c>
       <c r="D5" s="153"/>
     </row>
     <row r="6" spans="2:4" ht="22.5">
       <c r="B6" s="151" t="s">
+        <v>260</v>
+      </c>
+      <c r="C6" s="153" t="s">
         <v>261</v>
-      </c>
-      <c r="C6" s="153" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -10268,12 +10369,12 @@
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="151" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="151" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="2:4">
@@ -10305,7 +10406,7 @@
     </row>
     <row r="15" spans="2:4">
       <c r="B15" s="151" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="2:4">
@@ -10315,24 +10416,24 @@
     </row>
     <row r="17" spans="2:4" s="152" customFormat="1">
       <c r="B17" s="152" t="s">
+        <v>272</v>
+      </c>
+      <c r="C17" s="152" t="s">
         <v>273</v>
-      </c>
-      <c r="C17" s="152" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="101.25">
       <c r="B18" s="151" t="s">
+        <v>258</v>
+      </c>
+      <c r="C18" s="152" t="s">
         <v>259</v>
-      </c>
-      <c r="C18" s="152" t="s">
-        <v>260</v>
       </c>
       <c r="D18" s="152"/>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="151" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C19" s="152"/>
     </row>
@@ -10347,15 +10448,15 @@
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="151" t="s">
+        <v>264</v>
+      </c>
+      <c r="C21" s="151" t="s">
         <v>265</v>
-      </c>
-      <c r="C21" s="151" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="151" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -10372,10 +10473,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:K70"/>
+  <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="11.25"/>
@@ -11049,7 +11150,7 @@
         <v>17</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
@@ -11105,7 +11206,7 @@
         <v>99</v>
       </c>
       <c r="D38" s="38" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E38" s="19" t="s">
         <v>117</v>
@@ -11127,7 +11228,7 @@
         <v>13</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E39" s="18" t="s">
         <v>14</v>
@@ -11147,7 +11248,7 @@
         <v>18</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E40" s="15" t="s">
         <v>19</v>
@@ -11169,7 +11270,7 @@
         <v>15</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E41" s="18" t="s">
         <v>16</v>
@@ -11224,10 +11325,10 @@
         <v>139</v>
       </c>
       <c r="C44" s="42" t="s">
+        <v>237</v>
+      </c>
+      <c r="D44" s="43" t="s">
         <v>238</v>
-      </c>
-      <c r="D44" s="43" t="s">
-        <v>239</v>
       </c>
       <c r="E44" s="44"/>
       <c r="F44" s="44"/>
@@ -11240,10 +11341,10 @@
       <c r="A45" s="35"/>
       <c r="B45" s="41"/>
       <c r="C45" s="42" t="s">
+        <v>253</v>
+      </c>
+      <c r="D45" s="43" t="s">
         <v>254</v>
-      </c>
-      <c r="D45" s="43" t="s">
-        <v>255</v>
       </c>
       <c r="E45" s="44"/>
       <c r="F45" s="44"/>
@@ -11283,7 +11384,7 @@
       <c r="D48" s="71" t="s">
         <v>171</v>
       </c>
-      <c r="E48" s="72"/>
+      <c r="E48" s="159"/>
       <c r="F48" s="72"/>
       <c r="G48" s="72"/>
       <c r="H48" s="73"/>
@@ -11299,7 +11400,7 @@
         <v>167</v>
       </c>
       <c r="D49" s="76"/>
-      <c r="E49" s="77" t="s">
+      <c r="E49" s="160" t="s">
         <v>172</v>
       </c>
       <c r="F49" s="78"/>
@@ -11319,7 +11420,7 @@
       <c r="D50" s="86" t="s">
         <v>174</v>
       </c>
-      <c r="E50" s="77" t="s">
+      <c r="E50" s="160" t="s">
         <v>173</v>
       </c>
       <c r="F50" s="78"/>
@@ -11328,7 +11429,7 @@
       <c r="I50" s="79"/>
       <c r="J50" s="80"/>
     </row>
-    <row r="51" spans="1:11" s="8" customFormat="1" ht="75">
+    <row r="51" spans="1:11" s="8" customFormat="1" ht="60">
       <c r="A51" s="47"/>
       <c r="B51" s="75" t="s">
         <v>136</v>
@@ -11337,9 +11438,9 @@
         <v>169</v>
       </c>
       <c r="D51" s="76" t="s">
-        <v>176</v>
-      </c>
-      <c r="E51" s="77" t="s">
+        <v>279</v>
+      </c>
+      <c r="E51" s="160" t="s">
         <v>175</v>
       </c>
       <c r="F51" s="78"/>
@@ -11348,7 +11449,7 @@
       <c r="I51" s="79"/>
       <c r="J51" s="80"/>
     </row>
-    <row r="52" spans="1:11" s="8" customFormat="1" ht="30">
+    <row r="52" spans="1:11" s="8" customFormat="1" ht="24">
       <c r="A52" s="47"/>
       <c r="B52" s="75" t="s">
         <v>136</v>
@@ -11357,8 +11458,8 @@
         <v>170</v>
       </c>
       <c r="D52" s="76"/>
-      <c r="E52" s="77" t="s">
-        <v>256</v>
+      <c r="E52" s="160" t="s">
+        <v>255</v>
       </c>
       <c r="F52" s="78"/>
       <c r="G52" s="77"/>
@@ -11366,69 +11467,67 @@
       <c r="I52" s="79"/>
       <c r="J52" s="80"/>
     </row>
-    <row r="53" spans="1:11" s="33" customFormat="1" ht="15.75" thickBot="1">
+    <row r="53" spans="1:11" s="8" customFormat="1" ht="15">
       <c r="A53" s="47"/>
-      <c r="B53" s="81"/>
-      <c r="C53" s="82"/>
-      <c r="D53" s="82"/>
-      <c r="E53" s="83"/>
-      <c r="F53" s="83"/>
-      <c r="G53" s="83"/>
-      <c r="H53" s="82"/>
-      <c r="I53" s="84"/>
-      <c r="J53" s="85"/>
-      <c r="K53" s="48"/>
-    </row>
-    <row r="54" spans="1:11" s="37" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A54" s="35"/>
-      <c r="B54" s="49"/>
-      <c r="C54" s="50"/>
-      <c r="D54" s="50"/>
-      <c r="E54" s="51"/>
-      <c r="F54" s="51"/>
-      <c r="G54" s="51"/>
-      <c r="H54" s="50"/>
-      <c r="I54" s="52"/>
-      <c r="J54" s="52"/>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="B55" s="53"/>
-      <c r="C55" s="54"/>
-      <c r="D55" s="54"/>
-      <c r="E55" s="55"/>
-      <c r="F55" s="55"/>
-      <c r="G55" s="55"/>
-      <c r="H55" s="54"/>
-      <c r="I55" s="54"/>
-      <c r="J55" s="56"/>
-    </row>
-    <row r="56" spans="1:11" s="8" customFormat="1" ht="15">
-      <c r="A56" s="35"/>
-      <c r="B56" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C56" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="D56" s="38"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="16"/>
-    </row>
-    <row r="57" spans="1:11" s="8" customFormat="1" ht="22.5">
+      <c r="B53" s="161"/>
+      <c r="C53" s="162" t="s">
+        <v>280</v>
+      </c>
+      <c r="D53" s="162" t="s">
+        <v>281</v>
+      </c>
+      <c r="E53" s="163"/>
+      <c r="F53" s="164"/>
+      <c r="G53" s="165"/>
+      <c r="H53" s="165"/>
+      <c r="I53" s="166"/>
+      <c r="J53" s="167"/>
+    </row>
+    <row r="54" spans="1:11" s="33" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A54" s="47"/>
+      <c r="B54" s="81"/>
+      <c r="C54" s="82"/>
+      <c r="D54" s="82"/>
+      <c r="E54" s="83"/>
+      <c r="F54" s="83"/>
+      <c r="G54" s="83"/>
+      <c r="H54" s="82"/>
+      <c r="I54" s="84"/>
+      <c r="J54" s="85"/>
+      <c r="K54" s="48"/>
+    </row>
+    <row r="55" spans="1:11" s="37" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A55" s="35"/>
+      <c r="B55" s="49"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="51"/>
+      <c r="F55" s="51"/>
+      <c r="G55" s="51"/>
+      <c r="H55" s="50"/>
+      <c r="I55" s="52"/>
+      <c r="J55" s="52"/>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="B56" s="53"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="54"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="55"/>
+      <c r="G56" s="55"/>
+      <c r="H56" s="54"/>
+      <c r="I56" s="54"/>
+      <c r="J56" s="56"/>
+    </row>
+    <row r="57" spans="1:11" s="8" customFormat="1" ht="15">
       <c r="A57" s="35"/>
       <c r="B57" s="10" t="s">
         <v>136</v>
       </c>
       <c r="C57" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="D57" s="38" t="s">
-        <v>116</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="D57" s="38"/>
       <c r="E57" s="19"/>
       <c r="F57" s="15"/>
       <c r="G57" s="19"/>
@@ -11442,31 +11541,33 @@
         <v>136</v>
       </c>
       <c r="C58" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="D58" s="38"/>
+        <v>105</v>
+      </c>
+      <c r="D58" s="38" t="s">
+        <v>116</v>
+      </c>
       <c r="E58" s="19"/>
-      <c r="F58" s="15" t="s">
-        <v>109</v>
-      </c>
+      <c r="F58" s="15"/>
       <c r="G58" s="19"/>
       <c r="H58" s="19"/>
       <c r="I58" s="13"/>
       <c r="J58" s="16"/>
     </row>
-    <row r="59" spans="1:11" s="8" customFormat="1" ht="12.75">
+    <row r="59" spans="1:11" s="8" customFormat="1" ht="22.5">
       <c r="A59" s="35"/>
       <c r="B59" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C59" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D59" s="13"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="20"/>
+      <c r="C59" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="D59" s="38"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
       <c r="I59" s="13"/>
       <c r="J59" s="16"/>
     </row>
@@ -11476,11 +11577,9 @@
         <v>136</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>90</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="D60" s="13"/>
       <c r="E60" s="20"/>
       <c r="F60" s="15"/>
       <c r="G60" s="20"/>
@@ -11488,89 +11587,91 @@
       <c r="I60" s="13"/>
       <c r="J60" s="16"/>
     </row>
-    <row r="61" spans="1:11" s="8" customFormat="1" ht="33.75">
+    <row r="61" spans="1:11" s="8" customFormat="1" ht="12.75">
       <c r="A61" s="35"/>
       <c r="B61" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C61" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="D61" s="38"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="G61" s="19"/>
-      <c r="H61" s="19"/>
+      <c r="C61" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E61" s="20"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="20"/>
       <c r="I61" s="13"/>
       <c r="J61" s="16"/>
     </row>
-    <row r="62" spans="1:11" s="8" customFormat="1" ht="45">
+    <row r="62" spans="1:11" s="8" customFormat="1" ht="33.75">
       <c r="A62" s="35"/>
       <c r="B62" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C62" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="E62" s="20"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="20"/>
+      <c r="C62" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="D62" s="38"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="G62" s="19"/>
+      <c r="H62" s="19"/>
       <c r="I62" s="13"/>
       <c r="J62" s="16"/>
     </row>
-    <row r="63" spans="1:11" s="8" customFormat="1" ht="60">
+    <row r="63" spans="1:11" s="8" customFormat="1" ht="45">
       <c r="A63" s="35"/>
       <c r="B63" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C63" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="D63" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="E63" s="19" t="s">
-        <v>112</v>
-      </c>
+      <c r="C63" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E63" s="20"/>
       <c r="F63" s="15"/>
-      <c r="G63" s="19"/>
-      <c r="H63" s="19"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="20"/>
       <c r="I63" s="13"/>
       <c r="J63" s="16"/>
     </row>
-    <row r="64" spans="1:11" s="8" customFormat="1" ht="67.5">
+    <row r="64" spans="1:11" s="8" customFormat="1" ht="60">
       <c r="A64" s="35"/>
       <c r="B64" s="10" t="s">
         <v>136</v>
       </c>
       <c r="C64" s="38" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D64" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="E64" s="19"/>
+        <v>113</v>
+      </c>
+      <c r="E64" s="19" t="s">
+        <v>112</v>
+      </c>
       <c r="F64" s="15"/>
       <c r="G64" s="19"/>
       <c r="H64" s="19"/>
       <c r="I64" s="13"/>
       <c r="J64" s="16"/>
     </row>
-    <row r="65" spans="1:10" s="8" customFormat="1" ht="15">
+    <row r="65" spans="1:10" s="8" customFormat="1" ht="67.5">
       <c r="A65" s="35"/>
       <c r="B65" s="10" t="s">
         <v>136</v>
       </c>
       <c r="C65" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="D65" s="38"/>
+        <v>115</v>
+      </c>
+      <c r="D65" s="38" t="s">
+        <v>146</v>
+      </c>
       <c r="E65" s="19"/>
       <c r="F65" s="15"/>
       <c r="G65" s="19"/>
@@ -11578,81 +11679,97 @@
       <c r="I65" s="13"/>
       <c r="J65" s="16"/>
     </row>
-    <row r="66" spans="1:10" s="8" customFormat="1" ht="56.25">
+    <row r="66" spans="1:10" s="8" customFormat="1" ht="15">
       <c r="A66" s="35"/>
       <c r="B66" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C66" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D66" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E66" s="20"/>
+      <c r="C66" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="D66" s="38"/>
+      <c r="E66" s="19"/>
       <c r="F66" s="15"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="20"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="19"/>
       <c r="I66" s="13"/>
       <c r="J66" s="16"/>
     </row>
-    <row r="67" spans="1:10" s="8" customFormat="1" ht="90">
+    <row r="67" spans="1:10" s="8" customFormat="1" ht="56.25">
       <c r="A67" s="35"/>
       <c r="B67" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C67" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="D67" s="38" t="s">
-        <v>147</v>
-      </c>
-      <c r="E67" s="19"/>
-      <c r="F67" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="G67" s="19"/>
-      <c r="H67" s="19"/>
+      <c r="C67" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E67" s="20"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="20"/>
       <c r="I67" s="13"/>
       <c r="J67" s="16"/>
     </row>
-    <row r="68" spans="1:10" s="8" customFormat="1" ht="12.75">
+    <row r="68" spans="1:10" s="8" customFormat="1" ht="90">
       <c r="A68" s="35"/>
       <c r="B68" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C68" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D68" s="13"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="20"/>
+      <c r="C68" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="D68" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="E68" s="19"/>
+      <c r="F68" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="G68" s="19"/>
+      <c r="H68" s="19"/>
       <c r="I68" s="13"/>
       <c r="J68" s="16"/>
     </row>
-    <row r="69" spans="1:10">
-      <c r="B69" s="59"/>
-      <c r="C69" s="60"/>
-      <c r="D69" s="60"/>
-      <c r="E69" s="61"/>
-      <c r="F69" s="61"/>
-      <c r="G69" s="61"/>
-      <c r="H69" s="60"/>
-      <c r="I69" s="60"/>
-      <c r="J69" s="62"/>
-    </row>
-    <row r="70" spans="1:10" ht="12" thickBot="1">
-      <c r="B70" s="63"/>
-      <c r="C70" s="64"/>
-      <c r="D70" s="64"/>
-      <c r="E70" s="65"/>
-      <c r="F70" s="65"/>
-      <c r="G70" s="65"/>
-      <c r="H70" s="64"/>
-      <c r="I70" s="64"/>
-      <c r="J70" s="66"/>
+    <row r="69" spans="1:10" s="8" customFormat="1" ht="12.75">
+      <c r="A69" s="35"/>
+      <c r="B69" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D69" s="13"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="20"/>
+      <c r="I69" s="13"/>
+      <c r="J69" s="16"/>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="B70" s="59"/>
+      <c r="C70" s="60"/>
+      <c r="D70" s="60"/>
+      <c r="E70" s="61"/>
+      <c r="F70" s="61"/>
+      <c r="G70" s="61"/>
+      <c r="H70" s="60"/>
+      <c r="I70" s="60"/>
+      <c r="J70" s="62"/>
+    </row>
+    <row r="71" spans="1:10" ht="12" thickBot="1">
+      <c r="B71" s="63"/>
+      <c r="C71" s="64"/>
+      <c r="D71" s="64"/>
+      <c r="E71" s="65"/>
+      <c r="F71" s="65"/>
+      <c r="G71" s="65"/>
+      <c r="H71" s="64"/>
+      <c r="I71" s="64"/>
+      <c r="J71" s="66"/>
     </row>
   </sheetData>
   <sortState ref="B2:H53">
@@ -13249,8 +13366,8 @@
   </sheetPr>
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75"/>
@@ -13276,7 +13393,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="39" customHeight="1">
+    <row r="3" spans="1:5" ht="25.5">
       <c r="B3" s="123"/>
       <c r="C3" s="4" t="s">
         <v>127</v>
@@ -13285,21 +13402,21 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="39" customHeight="1">
+    <row r="4" spans="1:5">
       <c r="B4" s="123"/>
       <c r="C4" s="4" t="s">
         <v>125</v>
       </c>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:5" ht="39" customHeight="1">
+    <row r="5" spans="1:5" ht="25.5">
       <c r="B5" s="123"/>
       <c r="C5" s="4" t="s">
         <v>126</v>
       </c>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="83.45" customHeight="1">
+    <row r="6" spans="1:5" ht="76.5">
       <c r="B6" s="123" t="s">
         <v>122</v>
       </c>
@@ -13330,54 +13447,54 @@
       <c r="A10" s="138"/>
       <c r="B10" s="148"/>
       <c r="C10" s="115" t="s">
+        <v>240</v>
+      </c>
+      <c r="D10" s="149" t="s">
         <v>241</v>
-      </c>
-      <c r="D10" s="149" t="s">
-        <v>242</v>
       </c>
       <c r="E10" s="135"/>
     </row>
     <row r="11" spans="1:5" ht="38.25">
       <c r="B11" s="143"/>
       <c r="C11" s="111" t="s">
+        <v>242</v>
+      </c>
+      <c r="D11" s="144" t="s">
         <v>243</v>
       </c>
-      <c r="D11" s="144" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="27.6" customHeight="1">
+    </row>
+    <row r="12" spans="1:5">
       <c r="B12" s="143"/>
       <c r="C12" s="111" t="s">
+        <v>244</v>
+      </c>
+      <c r="D12" s="144" t="s">
         <v>245</v>
       </c>
-      <c r="D12" s="144" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="22.9" customHeight="1">
+    </row>
+    <row r="13" spans="1:5">
       <c r="B13" s="143"/>
       <c r="C13" s="111" t="s">
+        <v>246</v>
+      </c>
+      <c r="D13" s="144" t="s">
         <v>247</v>
       </c>
-      <c r="D13" s="144" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="26.45" customHeight="1">
+    </row>
+    <row r="14" spans="1:5">
       <c r="B14" s="143"/>
       <c r="C14" s="111"/>
       <c r="D14" s="144" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="18" customHeight="1">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="B15" s="143"/>
       <c r="C15" s="111" t="s">
+        <v>249</v>
+      </c>
+      <c r="D15" s="144" t="s">
         <v>250</v>
-      </c>
-      <c r="D15" s="144" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -13391,7 +13508,7 @@
       <c r="D17" s="147"/>
     </row>
     <row r="18" spans="1:6" ht="13.5" thickBot="1">
-      <c r="B18" s="158"/>
+      <c r="B18" s="154"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
     </row>
@@ -13406,36 +13523,36 @@
       <c r="A20" s="138"/>
       <c r="B20" s="148"/>
       <c r="C20" s="115" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D20" s="149" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E20" s="135"/>
     </row>
-    <row r="21" spans="1:6" ht="56.25" customHeight="1">
+    <row r="21" spans="1:6">
       <c r="B21" s="143"/>
       <c r="C21" s="111"/>
       <c r="D21" s="144" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="27.6" customHeight="1">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="B22" s="143"/>
       <c r="C22" s="111"/>
       <c r="D22" s="144"/>
     </row>
-    <row r="23" spans="1:6" ht="22.9" customHeight="1">
+    <row r="23" spans="1:6">
       <c r="B23" s="143"/>
       <c r="C23" s="111"/>
       <c r="D23" s="144"/>
     </row>
-    <row r="24" spans="1:6" ht="26.45" customHeight="1">
+    <row r="24" spans="1:6">
       <c r="B24" s="143"/>
       <c r="C24" s="111"/>
       <c r="D24" s="144"/>
     </row>
-    <row r="25" spans="1:6" ht="18" customHeight="1">
+    <row r="25" spans="1:6">
       <c r="B25" s="143"/>
       <c r="C25" s="111"/>
       <c r="D25" s="144"/>
@@ -13451,7 +13568,7 @@
       <c r="D27" s="147"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="B28" s="158"/>
+      <c r="B28" s="154"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
     </row>
@@ -13466,153 +13583,153 @@
     <row r="31" spans="1:6">
       <c r="B31" s="126"/>
       <c r="C31" s="118" t="s">
+        <v>201</v>
+      </c>
+      <c r="D31" s="115" t="s">
         <v>202</v>
       </c>
-      <c r="D31" s="115" t="s">
+      <c r="E31" s="115" t="s">
         <v>203</v>
       </c>
-      <c r="E31" s="115" t="s">
+      <c r="F31" s="116" t="s">
         <v>204</v>
       </c>
-      <c r="F31" s="116" t="s">
+    </row>
+    <row r="32" spans="1:6">
+      <c r="B32" s="127" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="25.9" customHeight="1">
-      <c r="B32" s="127" t="s">
+      <c r="C32" s="119" t="s">
         <v>206</v>
       </c>
-      <c r="C32" s="119" t="s">
+      <c r="D32" s="111" t="s">
+        <v>208</v>
+      </c>
+      <c r="E32" s="111" t="s">
         <v>207</v>
       </c>
-      <c r="D32" s="111" t="s">
-        <v>209</v>
-      </c>
-      <c r="E32" s="111" t="s">
-        <v>208</v>
-      </c>
       <c r="F32" s="112" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" ht="26.45" customHeight="1">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="25.5">
       <c r="B33" s="127"/>
       <c r="C33" s="119"/>
       <c r="D33" s="111"/>
       <c r="E33" s="111" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F33" s="112" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="127" t="s">
+        <v>209</v>
+      </c>
+      <c r="C34" s="119" t="s">
+        <v>233</v>
+      </c>
+      <c r="D34" s="111" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="34" spans="2:6" ht="21" customHeight="1">
-      <c r="B34" s="127" t="s">
-        <v>210</v>
-      </c>
-      <c r="C34" s="119" t="s">
-        <v>234</v>
-      </c>
-      <c r="D34" s="111" t="s">
+      <c r="E34" s="111" t="s">
+        <v>231</v>
+      </c>
+      <c r="F34" s="112" t="s">
         <v>232</v>
       </c>
-      <c r="E34" s="111" t="s">
-        <v>232</v>
-      </c>
-      <c r="F34" s="112" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" ht="37.15" customHeight="1">
+    </row>
+    <row r="35" spans="2:6" ht="25.5">
       <c r="B35" s="127" t="s">
+        <v>219</v>
+      </c>
+      <c r="C35" s="111" t="s">
+        <v>221</v>
+      </c>
+      <c r="D35" s="111" t="s">
+        <v>222</v>
+      </c>
+      <c r="E35" s="111" t="s">
         <v>220</v>
       </c>
-      <c r="C35" s="111" t="s">
+      <c r="F35" s="112" t="s">
         <v>222</v>
       </c>
-      <c r="D35" s="111" t="s">
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="127" t="s">
+        <v>225</v>
+      </c>
+      <c r="C36" s="119" t="s">
         <v>223</v>
       </c>
-      <c r="E35" s="111" t="s">
-        <v>221</v>
-      </c>
-      <c r="F35" s="112" t="s">
+      <c r="D36" s="111" t="s">
+        <v>224</v>
+      </c>
+      <c r="E36" s="111" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="36" spans="2:6" ht="25.9" customHeight="1">
-      <c r="B36" s="127" t="s">
-        <v>226</v>
-      </c>
-      <c r="C36" s="119" t="s">
+      <c r="F36" s="112" t="s">
         <v>224</v>
       </c>
-      <c r="D36" s="111" t="s">
-        <v>225</v>
-      </c>
-      <c r="E36" s="111" t="s">
-        <v>224</v>
-      </c>
-      <c r="F36" s="112" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" ht="33" customHeight="1">
+    </row>
+    <row r="37" spans="2:6" ht="25.5">
       <c r="B37" s="127" t="s">
+        <v>216</v>
+      </c>
+      <c r="C37" s="119" t="s">
         <v>217</v>
       </c>
-      <c r="C37" s="119" t="s">
+      <c r="D37" s="111" t="s">
         <v>218</v>
-      </c>
-      <c r="D37" s="111" t="s">
-        <v>219</v>
       </c>
       <c r="E37" s="111"/>
       <c r="F37" s="112" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" ht="47.45" customHeight="1">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="25.5">
       <c r="B38" s="127" t="s">
+        <v>211</v>
+      </c>
+      <c r="C38" s="119" t="s">
         <v>212</v>
       </c>
-      <c r="C38" s="119" t="s">
-        <v>213</v>
-      </c>
       <c r="D38" s="111" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E38" s="111" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F38" s="112" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="127" t="s">
+        <v>213</v>
+      </c>
+      <c r="C39" s="119" t="s">
         <v>214</v>
       </c>
-      <c r="C39" s="119" t="s">
+      <c r="D39" s="111" t="s">
         <v>215</v>
-      </c>
-      <c r="D39" s="111" t="s">
-        <v>216</v>
       </c>
       <c r="E39" s="111"/>
       <c r="F39" s="112"/>
     </row>
     <row r="40" spans="2:6" ht="114.75">
       <c r="B40" s="127" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C40" s="119"/>
       <c r="D40" s="111"/>
       <c r="E40" s="111" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F40" s="112" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41" spans="2:6" ht="13.5" thickBot="1">
@@ -13630,20 +13747,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C4"/>
+  <dimension ref="B2:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="2" width="8.85546875" style="87"/>
+    <col min="1" max="1" width="8.85546875" style="87"/>
+    <col min="2" max="2" width="15" style="87" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="100.140625" style="87" customWidth="1"/>
     <col min="4" max="16384" width="8.85546875" style="87"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" ht="21.75" customHeight="1">
       <c r="B2" s="87" t="s">
         <v>129</v>
       </c>
@@ -13659,7 +13777,22 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="75.599999999999994" customHeight="1"/>
+    <row r="4" spans="2:3" ht="75.599999999999994" customHeight="1">
+      <c r="B4" s="87" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="104" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="52.5" customHeight="1">
+      <c r="B5" s="87" t="s">
+        <v>277</v>
+      </c>
+      <c r="C5" s="87" t="s">
+        <v>278</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13671,7 +13804,7 @@
   <dimension ref="B3:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25"/>
@@ -13692,10 +13825,10 @@
     </row>
     <row r="4" spans="2:3" ht="78.75">
       <c r="B4" s="87" t="s">
+        <v>251</v>
+      </c>
+      <c r="C4" s="87" t="s">
         <v>252</v>
-      </c>
-      <c r="C4" s="87" t="s">
-        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -13707,7 +13840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -13734,10 +13867,10 @@
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="91"/>
-      <c r="C3" s="156" t="s">
-        <v>182</v>
-      </c>
-      <c r="D3" s="157"/>
+      <c r="C3" s="157" t="s">
+        <v>181</v>
+      </c>
+      <c r="D3" s="158"/>
       <c r="E3" s="92"/>
       <c r="F3" s="92"/>
       <c r="G3" s="92"/>
@@ -13746,12 +13879,12 @@
     <row r="4" spans="2:8" ht="78" customHeight="1">
       <c r="B4" s="94"/>
       <c r="C4" s="95" t="s">
-        <v>180</v>
-      </c>
-      <c r="D4" s="154" t="s">
-        <v>190</v>
-      </c>
-      <c r="E4" s="155"/>
+        <v>179</v>
+      </c>
+      <c r="D4" s="155" t="s">
+        <v>189</v>
+      </c>
+      <c r="E4" s="156"/>
       <c r="F4" s="95"/>
       <c r="G4" s="95"/>
       <c r="H4" s="96"/>
@@ -13759,10 +13892,10 @@
     <row r="5" spans="2:8" ht="56.25">
       <c r="B5" s="94"/>
       <c r="C5" s="95" t="s">
+        <v>179</v>
+      </c>
+      <c r="D5" s="97" t="s">
         <v>180</v>
-      </c>
-      <c r="D5" s="97" t="s">
-        <v>181</v>
       </c>
       <c r="E5" s="98"/>
       <c r="F5" s="95"/>
@@ -13772,10 +13905,10 @@
     <row r="6" spans="2:8" ht="122.45" customHeight="1">
       <c r="B6" s="94"/>
       <c r="C6" s="95" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D6" s="99" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E6" s="95"/>
       <c r="F6" s="95"/>
@@ -13786,7 +13919,7 @@
       <c r="B7" s="94"/>
       <c r="C7" s="95"/>
       <c r="D7" s="95" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E7" s="95"/>
       <c r="F7" s="95"/>
@@ -13797,7 +13930,7 @@
       <c r="B8" s="94"/>
       <c r="C8" s="95"/>
       <c r="D8" s="95" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E8" s="95"/>
       <c r="F8" s="95"/>
@@ -13810,7 +13943,7 @@
         <v>120</v>
       </c>
       <c r="D9" s="95" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E9" s="95"/>
       <c r="F9" s="95"/>
@@ -13820,10 +13953,10 @@
     <row r="10" spans="2:8" ht="97.15" customHeight="1">
       <c r="B10" s="100"/>
       <c r="C10" s="101" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D10" s="102" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E10" s="101"/>
       <c r="F10" s="101"/>
@@ -13833,10 +13966,10 @@
     <row r="11" spans="2:8" ht="122.45" customHeight="1">
       <c r="B11" s="100"/>
       <c r="C11" s="101" t="s">
+        <v>195</v>
+      </c>
+      <c r="D11" s="108" t="s">
         <v>196</v>
-      </c>
-      <c r="D11" s="108" t="s">
-        <v>197</v>
       </c>
       <c r="E11" s="101"/>
       <c r="F11" s="101"/>
@@ -13846,13 +13979,13 @@
     <row r="12" spans="2:8" ht="73.900000000000006" customHeight="1">
       <c r="B12" s="94"/>
       <c r="C12" s="95" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D12" s="104" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E12" s="99" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F12" s="95"/>
       <c r="G12" s="95"/>
@@ -13861,10 +13994,10 @@
     <row r="13" spans="2:8" ht="73.900000000000006" customHeight="1">
       <c r="B13" s="100"/>
       <c r="C13" s="101" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D13" s="104" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E13" s="101"/>
       <c r="F13" s="101"/>
@@ -13874,10 +14007,10 @@
     <row r="14" spans="2:8" ht="97.15" customHeight="1">
       <c r="B14" s="100"/>
       <c r="C14" s="101" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D14" s="104" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E14" s="101"/>
       <c r="F14" s="101"/>
@@ -13915,10 +14048,10 @@
     <row r="19" spans="2:8" ht="87" customHeight="1">
       <c r="B19" s="94"/>
       <c r="C19" s="95" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D19" s="95" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E19" s="95"/>
       <c r="F19" s="95"/>
@@ -13928,10 +14061,10 @@
     <row r="20" spans="2:8" ht="43.9" customHeight="1">
       <c r="B20" s="94"/>
       <c r="C20" s="95" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D20" s="95" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E20" s="95"/>
       <c r="F20" s="95"/>
